--- a/biology/Botanique/Liste_des_vins_AOC_en_Suisse/Liste_des_vins_AOC_en_Suisse.xlsx
+++ b/biology/Botanique/Liste_des_vins_AOC_en_Suisse/Liste_des_vins_AOC_en_Suisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve des appellations d'origine contrôlée viticoles dans 23 cantons sur un total de 26. Il s'agit des cantons de Bâle-Campagne, de Bâle-Ville, de Berne, de Fribourg, de Genève, de Glaris, des Grisons, de Jura, de Lucerne, de Neuchâtel, de Nidwald, d'Obwald, de Saint-Gall, de Schaffhouse, de Schwytz, de Soleure, du Tessin, de Thurgovie, d'Uri, du Valais, de Vaud, de Zoug et de Zurich. Les cantons d'Appenzell Rhodes-Extérieures, d'Appenzell Rhodes-Intérieures et d'Argovie n'en possèdent donc pas.
 </t>
@@ -511,7 +523,9 @@
           <t>Appellation cantonale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appellation d'origine contrôlée est retenue pour 21 cantons. Il s'agit des appellations :
 Berne
@@ -564,9 +578,11 @@
           <t>Appellations régionales et locales par canton</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15 cantons ont une appellation sur le nom du canton sans posséder d'appellation régionale ou locale :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>15 cantons ont une appellation sur le nom du canton sans posséder d'appellation régionale ou locale :
 Basel-Landschaft
 Basel-Stadt
 Glarus
@@ -581,17 +597,119 @@
 Thurgau
 Uri
 Valais
-Zug
-Canton de Berne
-Dans le canton de Berne, en plus de l'appellation Berne, on trouve deux AOC régionales :
+Zug</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Appellations régionales et locales par canton</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Canton de Berne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans le canton de Berne, en plus de l'appellation Berne, on trouve deux AOC régionales :
 Lac de Bienne ;
-Thunersee
-Canton de Fribourg
-Dans le canton de Fribourg, on trouve deux AOC régionales :
+Thunersee</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Appellations régionales et locales par canton</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Canton de Fribourg</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans le canton de Fribourg, on trouve deux AOC régionales :
 Cheyres
-Vully
-Canton de Genève
-Dans le canton de Genève, en plus de l'appellation Genève, on trouve 22 AOC premier cru :
+Vully</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Appellations régionales et locales par canton</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Canton de Genève</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le canton de Genève, en plus de l'appellation Genève, on trouve 22 AOC premier cru :
 Coteau de Chevrens
 Côtes de Landecy
 Coteau de Lully
@@ -615,8 +733,43 @@
 Rougemont
 La Feuillée
 Genève a également géo référencé son vignoble
-Canton de Neuchâtel
-Dans le canton de Neuchâtel, en plus de l'appellation Neuchâtel on trouve deux AOC régionales : Entre-Deux-Lacs et La Béroche, ainsi que 21 AOC locales :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Appellations régionales et locales par canton</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Canton de Neuchâtel</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dans le canton de Neuchâtel, en plus de l'appellation Neuchâtel on trouve deux AOC régionales : Entre-Deux-Lacs et La Béroche, ainsi que 21 AOC locales :
 Chez-le-Bart
 Champréveyres
 La Coudre
@@ -637,14 +790,82 @@
 Cornaux
 Saint-Blaise
 Hauterive
-Ville de Neuchâtel
-Canton du Tessin
-Dans le canton du Tessin, en plus de l'appellation Ticino, on trouve 3 autres appellations cantonales : 
+Ville de Neuchâtel</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Appellations régionales et locales par canton</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Canton du Tessin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dans le canton du Tessin, en plus de l'appellation Ticino, on trouve 3 autres appellations cantonales : 
 Rosso del Ticino
 Bianco del Ticino
-Rosato del Ticino
-Canton de Vaud
-Dans le canton de Vaud, on trouve, en plus de l'appellation régionale Vaud, six appellations d'origine contrôlée locales et deux grands crus : 
+Rosato del Ticino</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Appellations régionales et locales par canton</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Canton de Vaud</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dans le canton de Vaud, on trouve, en plus de l'appellation régionale Vaud, six appellations d'origine contrôlée locales et deux grands crus : 
 Bonvillars AOC : Bonvillars se trouve au bord du lac de Neuchâtel. L’appellation Bovillars AOC est de 195 ha et s’étend de Montagny-près-Yverdon à Concise sur un total de 195 hectares.
 Chablais AOC : s’étend de Villeneuve à la frontière valaisanne sur 590 ha, dans le Chablais vaudois.
 Côtes de l’Orbe AOC : entre le lac Léman et celui de Neuchâtel, l’AOC Côtes de l’Orbe s’étend de La Sarraz aux portes d’Yverdon-les-Bains.
@@ -652,9 +873,43 @@
 Lavaux AOC : vignoble de 921 hectares situé dans la region de Lavaux.
 Vully AOC : environ 150 hectares, le vignoble de Vully, est situé sur le contrefort du Mont Vully.
 Dézaley grand cru
-Calamin grand cru
-Canton de Zurich
-Dans le canton de Zurich, on trouve, en plus de l'appellation Zürich, une appellation d'origine contrôlée régionale : Zürichsee.
+Calamin grand cru</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_vins_AOC_en_Suisse</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Appellations régionales et locales par canton</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Canton de Zurich</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le canton de Zurich, on trouve, en plus de l'appellation Zürich, une appellation d'origine contrôlée régionale : Zürichsee.
 </t>
         </is>
       </c>
